--- a/outputs/archivo_final.xlsx
+++ b/outputs/archivo_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Filmaffinity\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E614A5FB-B3B3-4AFC-9502-72554826DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60E492-311A-48A4-8595-BDADCE7A3228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,11 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId7"/>
-    <pivotCache cacheId="32" r:id="rId8"/>
-    <pivotCache cacheId="39" r:id="rId9"/>
-    <pivotCache cacheId="60" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -199,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,85 +218,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -305,35 +230,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -344,16 +245,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -395,10 +286,55 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -408,11 +344,48 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -422,6 +395,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
@@ -429,20 +405,41 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0DB000"/>
+      <color rgb="FFF79709"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FF006600"/>
-      <color rgb="FFFF6600"/>
-      <color rgb="FFF79709"/>
-      <color rgb="FF0DB000"/>
       <color rgb="FF218F24"/>
     </mruColors>
   </colors>
@@ -1253,7 +1250,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1549,7 +1549,10 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1863,6 +1866,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1896,6 +1969,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5AE5-427E-A9FC-36DFB94C30DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1911,6 +1989,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5AE5-427E-A9FC-36DFB94C30DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1926,6 +2009,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5AE5-427E-A9FC-36DFB94C30DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1941,6 +2029,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5AE5-427E-A9FC-36DFB94C30DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1956,6 +2049,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5AE5-427E-A9FC-36DFB94C30DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3955,7 +4053,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4549,7 +4647,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4748,7 +4846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5383,7 +5481,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12355,6 +12453,543 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha: pentágono 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCB44CD-8E42-4F24-ED34-5DD458247227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6985000" y="1079500"/>
+          <a:ext cx="3314700" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>EL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> GÉNERO CON MÁS FILMES ES: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>DRAMA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>15565</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Gráfico 16" descr="Medalla con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC193594-DEC2-2969-C694-DB836B33FEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="927100"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Gráfico 17" descr="Medalla con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D4349C-7F4A-4984-9AF6-BBA3DC1E5458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6146800" y="1905000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flecha: pentágono 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C22557-5AF6-4E47-9B1E-FE2619080EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6959600" y="2006600"/>
+          <a:ext cx="3429000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>EL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> PAÍS CON MÁS FILMES ESTRENADOS: ESTADOS UNIDOS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>42387</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Gráfico 19" descr="Medalla con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5B6CA8-7DDE-4531-8EFA-95525D7E0010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="2921000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flecha: pentágono 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA2DF6E-E4B8-468B-AF28-C22A1AAF6B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6972300" y="2844800"/>
+          <a:ext cx="3314700" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>EL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> GÉNERO QUE MEJOR CALIFICACIÓN TUVO:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>DOCUMENTAL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>6.57</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12587,7 +13222,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00EB09F-0939-4117-9784-B6B47B61061C}" name="Tabla dinámica4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A00EB09F-0939-4117-9784-B6B47B61061C}" name="Tabla dinámica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="E3:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -12640,7 +13275,7 @@
   <dataFields count="1">
     <dataField name="Suma de total_filmes_por_genero" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="13">
+  <chartFormats count="18">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12788,6 +13423,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12802,7 +13497,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D12F1D55-B2F5-4E97-BFD2-5E4AFBD1C95F}" name="Tabla dinámica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D12F1D55-B2F5-4E97-BFD2-5E4AFBD1C95F}" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="14">
   <location ref="E3:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -12888,7 +13583,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20F9A4BF-6070-4396-8315-83E67C490ECE}" name="Tabla dinámica2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20F9A4BF-6070-4396-8315-83E67C490ECE}" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -12966,7 +13661,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B84C6BA7-7415-4F7D-A781-0E72871C6CC5}" name="Tabla dinámica3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B84C6BA7-7415-4F7D-A781-0E72871C6CC5}" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="E3:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -13054,45 +13749,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3090010-8BE8-4A73-89A2-2E98D656F90C}" name="Tabla2" displayName="Tabla2" ref="B3:C8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3090010-8BE8-4A73-89A2-2E98D656F90C}" name="Tabla2" displayName="Tabla2" ref="B3:C8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="B3:C8" xr:uid="{E3090010-8BE8-4A73-89A2-2E98D656F90C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1A44651-E06B-411D-8F5D-BA2FBFCCC031}" name="Género" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A30EF19F-203E-435E-99EA-CB76B244B757}" name="total_filmes_por_genero" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C1A44651-E06B-411D-8F5D-BA2FBFCCC031}" name="Género" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A30EF19F-203E-435E-99EA-CB76B244B757}" name="total_filmes_por_genero" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A019C62-64C4-4B0D-9CC7-22BEC2FC6CFF}" name="Tabla3" displayName="Tabla3" ref="B3:C8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A019C62-64C4-4B0D-9CC7-22BEC2FC6CFF}" name="Tabla3" displayName="Tabla3" ref="B3:C8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="B3:C8" xr:uid="{1A019C62-64C4-4B0D-9CC7-22BEC2FC6CFF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{12D17B7D-BDF7-4C0F-BC18-0D7B0A2BC54C}" name="Género" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{87FEC2AB-3978-487C-B0AF-1030726B8D25}" name="promedio_calificacion" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{12D17B7D-BDF7-4C0F-BC18-0D7B0A2BC54C}" name="Género" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{87FEC2AB-3978-487C-B0AF-1030726B8D25}" name="promedio_calificacion" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C8E7BEF-EFB2-41BB-A5BB-7D4D6282D01C}" name="Tabla4" displayName="Tabla4" ref="B3:D8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C8E7BEF-EFB2-41BB-A5BB-7D4D6282D01C}" name="Tabla4" displayName="Tabla4" ref="B3:D8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="B3:D8" xr:uid="{7C8E7BEF-EFB2-41BB-A5BB-7D4D6282D01C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1324637F-FC60-4FD2-9E17-7B6A396A475B}" name="Tipo filme" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{C7409673-5236-4AB5-9A56-58D7EB981AF5}" name="filmes" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{EFF92DD4-1282-4EAA-A04C-1DDB35AC2919}" name="promedio_calificacion" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{1324637F-FC60-4FD2-9E17-7B6A396A475B}" name="Tipo filme" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C7409673-5236-4AB5-9A56-58D7EB981AF5}" name="filmes" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{EFF92DD4-1282-4EAA-A04C-1DDB35AC2919}" name="promedio_calificacion" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3CAAF70B-E777-477A-A338-282076F20253}" name="Tabla5" displayName="Tabla5" ref="B3:C8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3CAAF70B-E777-477A-A338-282076F20253}" name="Tabla5" displayName="Tabla5" ref="B3:C8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="B3:C8" xr:uid="{3CAAF70B-E777-477A-A338-282076F20253}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DBCEAACD-B824-40EB-AECD-060CC90940B4}" name="Año" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9F1DFBB2-3D3A-4FE0-A58E-3AF00A3FD0FF}" name="total_filmes" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{DBCEAACD-B824-40EB-AECD-060CC90940B4}" name="Año" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9F1DFBB2-3D3A-4FE0-A58E-3AF00A3FD0FF}" name="total_filmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13496,8 +14191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13531,7 +14226,7 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>15565</v>
       </c>
     </row>
@@ -13545,7 +14240,7 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>13150</v>
       </c>
     </row>
@@ -13559,7 +14254,7 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>12349</v>
       </c>
     </row>
@@ -13573,7 +14268,7 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>5137</v>
       </c>
     </row>
@@ -13587,7 +14282,7 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>3899</v>
       </c>
     </row>
@@ -13595,7 +14290,7 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>50100</v>
       </c>
     </row>
@@ -13613,7 +14308,7 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13729,7 +14424,7 @@
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13899,7 +14594,7 @@
       <c r="E4">
         <v>2014</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>2369</v>
       </c>
     </row>
@@ -13913,7 +14608,7 @@
       <c r="E5">
         <v>2015</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>2398</v>
       </c>
     </row>
@@ -13927,7 +14622,7 @@
       <c r="E6">
         <v>2016</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>2416</v>
       </c>
     </row>
@@ -13941,7 +14636,7 @@
       <c r="E7">
         <v>2017</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>2476</v>
       </c>
     </row>
@@ -13955,7 +14650,7 @@
       <c r="E8">
         <v>2018</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>2383</v>
       </c>
     </row>
@@ -13963,7 +14658,7 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>12042</v>
       </c>
     </row>
@@ -13981,7 +14676,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13989,25 +14684,10 @@
     <col min="1" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M23" s="7" t="s">
